--- a/UploadToMX.xlsx
+++ b/UploadToMX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/050306a05c315ae2/VScode/mx-client/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/050306a05c315ae2/07-Online G4Plus/mx_content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="8_{E9569829-4AD2-4FCC-A8C7-7845FA8505A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42017B56-FE4B-4666-BFC4-FF07F5141433}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{E9569829-4AD2-4FCC-A8C7-7845FA8505A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAD2B01-655A-4535-B4F0-BF525A78B697}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-60" yWindow="30" windowWidth="28770" windowHeight="16635" xr2:uid="{9A149978-690D-489B-90DE-22E7F51D3BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A149978-690D-489B-90DE-22E7F51D3BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -98,21 +98,12 @@
     <t>https://ispri.ng/GMnvZ</t>
   </si>
   <si>
-    <t>Interger Multiplication Max Min -1</t>
-  </si>
-  <si>
-    <t>Interger Multiplication Max Min -2</t>
-  </si>
-  <si>
     <t>https://ispri.ng/nMGmZ</t>
   </si>
   <si>
     <t>https://ispri.ng/6pNW7</t>
   </si>
   <si>
-    <t>Integer Multipliation Division</t>
-  </si>
-  <si>
     <t>Algebra</t>
   </si>
   <si>
@@ -138,6 +129,15 @@
   </si>
   <si>
     <t>https://ispri.ng/3LN01</t>
+  </si>
+  <si>
+    <t>Integer Multiplication Division</t>
+  </si>
+  <si>
+    <t>Integer Multiplication Max Min -1</t>
+  </si>
+  <si>
+    <t>Integer Multiplication Max Min -2</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -257,15 +257,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -283,116 +281,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -780,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E3EC54-4992-405C-8AF1-2681AF2B1753}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,10 +738,10 @@
       </c>
       <c r="E2" s="5" t="str">
         <f xml:space="preserve"> B2 &amp; "-" &amp; RIGHT(C2, 4) &amp; " - " &amp; LEFT(F2, FIND("-", F2 &amp; "-") - 1)</f>
-        <v xml:space="preserve">Q-5000 - Interger Multiplication Max Min </v>
+        <v xml:space="preserve">Q-5000 - Integer Multiplication Max Min </v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -882,10 +770,10 @@
       </c>
       <c r="E3" s="5" t="str">
         <f xml:space="preserve"> B3 &amp; "-" &amp; RIGHT(C3, 4) &amp; " - " &amp; LEFT(F3, FIND("-", F3 &amp; "-") - 1)</f>
-        <v xml:space="preserve">Q-5001 - Interger Multiplication Max Min </v>
+        <v xml:space="preserve">Q-5001 - Integer Multiplication Max Min </v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>19</v>
@@ -920,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -952,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
@@ -967,7 +855,7 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1">
@@ -978,10 +866,10 @@
       </c>
       <c r="E6" s="5" t="str">
         <f xml:space="preserve"> B6 &amp; "-" &amp; RIGHT(C6, 4) &amp; " - " &amp; LEFT(F6, FIND("-", F6 &amp; "-") - 1)</f>
-        <v>W-5004 - Integer Multipliation Division</v>
+        <v>W-5004 - Integer Multiplication Division</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
@@ -990,8 +878,8 @@
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>25</v>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -999,10 +887,10 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>105005</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1013,10 +901,10 @@
         <v xml:space="preserve">Q-5005 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -1031,7 +919,7 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1">
@@ -1045,10 +933,10 @@
         <v xml:space="preserve">Q-5006 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
@@ -1063,10 +951,10 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>105007</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1077,10 +965,10 @@
         <v xml:space="preserve">Q-5007 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>10</v>
@@ -1095,7 +983,7 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1">
@@ -1109,10 +997,10 @@
         <v xml:space="preserve">Q-5008 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>10</v>
@@ -1122,33 +1010,6 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1159,14 +1020,14 @@
     <cfRule type="duplicateValues" dxfId="3" priority="25"/>
     <cfRule type="duplicateValues" dxfId="2" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/UploadToMX.xlsx
+++ b/UploadToMX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/050306a05c315ae2/07-Online G4Plus/mx_content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{E9569829-4AD2-4FCC-A8C7-7845FA8505A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAD2B01-655A-4535-B4F0-BF525A78B697}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{E9569829-4AD2-4FCC-A8C7-7845FA8505A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED708B81-C97D-433C-A408-8C2E3539E226}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A149978-690D-489B-90DE-22E7F51D3BA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
   <si>
     <t>work_name</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>Integer Multiplication Max Min -2</t>
+  </si>
+  <si>
+    <t>Factoring Difference of Squares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factoring </t>
+  </si>
+  <si>
+    <t>Difference of Squares</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -248,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -259,11 +271,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -668,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E3EC54-4992-405C-8AF1-2681AF2B1753}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,22 +1044,54 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>105009</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f xml:space="preserve"> B11 &amp; "-" &amp; RIGHT(C11, 4) &amp; " - " &amp; LEFT(F11, FIND("-", F11 &amp; "-") - 1)</f>
+        <v>W-5009 - Factoring Difference of Squares</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UploadToMX.xlsx
+++ b/UploadToMX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/050306a05c315ae2/07-Online G4Plus/mx_content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{E9569829-4AD2-4FCC-A8C7-7845FA8505A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED708B81-C97D-433C-A408-8C2E3539E226}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{E9569829-4AD2-4FCC-A8C7-7845FA8505A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E460AB6-06D9-4578-BC19-62CB84382894}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9A149978-690D-489B-90DE-22E7F51D3BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{9A149978-690D-489B-90DE-22E7F51D3BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="64">
   <si>
     <t>work_name</t>
   </si>
@@ -150,6 +150,84 @@
   </si>
   <si>
     <t>J</t>
+  </si>
+  <si>
+    <t>Inequalities Comparison Operators</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Working with Inequalties -1 MCQ</t>
+  </si>
+  <si>
+    <t>Working with Inequalties -2 MCQ</t>
+  </si>
+  <si>
+    <t>Introduction to Comparison Symbols</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/10NYL</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Inequalities</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/NylXv</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/gLlRV</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/3LNpN</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/Qr9XZ</t>
+  </si>
+  <si>
+    <t>Working with Inequalties -4 FB</t>
+  </si>
+  <si>
+    <t>Working with Inequalties -3 FB</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/vB79D</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/zxm2M</t>
+  </si>
+  <si>
+    <t>Testing Inequalities -1</t>
+  </si>
+  <si>
+    <t>Testing Inequalities -2</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/JRYXl</t>
+  </si>
+  <si>
+    <t>Testing Inequalities -3</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/GMnXX</t>
+  </si>
+  <si>
+    <t>Testing Inequalities -4</t>
+  </si>
+  <si>
+    <t>https://ispri.ng/6pNBk</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Introduction to Inequalities D</t>
   </si>
 </sst>
 </file>
@@ -260,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -271,32 +349,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -701,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E3EC54-4992-405C-8AF1-2681AF2B1753}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,9 +814,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -789,9 +844,7 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -821,9 +874,7 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -853,9 +904,7 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -885,9 +934,7 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
@@ -898,7 +945,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f xml:space="preserve"> B6 &amp; "-" &amp; RIGHT(C6, 4) &amp; " - " &amp; LEFT(F6, FIND("-", F6 &amp; "-") - 1)</f>
+        <f t="shared" ref="E6:E12" si="1" xml:space="preserve"> B6 &amp; "-" &amp; RIGHT(C6, 4) &amp; " - " &amp; LEFT(F6, FIND("-", F6 &amp; "-") - 1)</f>
         <v>W-5004 - Integer Multiplication Division</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -917,9 +964,7 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -930,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f xml:space="preserve"> B7 &amp; "-" &amp; RIGHT(C7, 4) &amp; " - " &amp; LEFT(F7, FIND("-", F7 &amp; "-") - 1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Q-5005 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F7" s="1" t="s">
@@ -949,9 +994,7 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
+      <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
@@ -962,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f xml:space="preserve"> B8 &amp; "-" &amp; RIGHT(C8, 4) &amp; " - " &amp; LEFT(F8, FIND("-", F8 &amp; "-") - 1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Q-5006 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F8" s="1" t="s">
@@ -981,9 +1024,7 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1035,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f xml:space="preserve"> B9 &amp; "-" &amp; RIGHT(C9, 4) &amp; " - " &amp; LEFT(F9, FIND("-", F9 &amp; "-") - 1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Q-5007 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1013,9 +1054,7 @@
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f xml:space="preserve"> B10 &amp; "-" &amp; RIGHT(C10, 4) &amp; " - " &amp; LEFT(F10, FIND("-", F10 &amp; "-") - 1)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">Q-5008 - Product with Specific Sum or Difference </v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1045,9 +1084,7 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -1058,41 +1095,394 @@
         <v>37</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f xml:space="preserve"> B11 &amp; "-" &amp; RIGHT(C11, 4) &amp; " - " &amp; LEFT(F11, FIND("-", F11 &amp; "-") - 1)</f>
+        <f t="shared" si="1"/>
         <v>W-5009 - Factoring Difference of Squares</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>105010</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>V-5010 - Introduction to Comparison Symbols</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>105011</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f xml:space="preserve"> B13 &amp; "-" &amp; RIGHT(C13, 4) &amp; " - " &amp; LEFT(F13, FIND("-", F13 &amp; "-") - 1)</f>
+        <v>Q-5011 - Inequalities Comparison Operators</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>105012</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f xml:space="preserve"> B14 &amp; "-" &amp; RIGHT(C14, 4) &amp; " - " &amp; LEFT(F14, FIND("-", F14 &amp; "-") - 1)</f>
+        <v xml:space="preserve">Q-5012 - Working with Inequalties </v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>105013</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f xml:space="preserve"> B15 &amp; "-" &amp; RIGHT(C15, 4) &amp; " - " &amp; LEFT(F15, FIND("-", F15 &amp; "-") - 1)</f>
+        <v xml:space="preserve">Q-5013 - Working with Inequalties </v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>105014</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="str">
+        <f t="shared" ref="E16:E22" si="2" xml:space="preserve"> B16 &amp; "-" &amp; RIGHT(C16, 4) &amp; " - " &amp; LEFT(F16, FIND("-", F16 &amp; "-") - 1)</f>
+        <v xml:space="preserve">Q-5014 - Working with Inequalties </v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>105015</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Q-5015 - Working with Inequalties </v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1">
+        <v>105016</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Q-5016 - Testing Inequalities </v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>105017</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Q-5017 - Testing Inequalities </v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1">
+        <v>105018</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Q-5018 - Testing Inequalities </v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1">
+        <v>105019</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Q-5019 - Testing Inequalities </v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>105020</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>W-5020 - Introduction to Inequalities D</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="8" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>